--- a/AfDD_2024_Annex_Table_Tab31.xlsx
+++ b/AfDD_2024_Annex_Table_Tab31.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44211E81-B4D5-4039-98C0-26EAB04A1247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55295777-8BF9-4237-9A5E-86EEE5802ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{5067F8A7-F18D-4788-957A-D404CAF4AAC6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CFA0BDCB-78A3-4C91-9527-DD6D664A6C61}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab31" sheetId="1" r:id="rId1"/>
@@ -1392,7 +1392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25813247-3C4A-4FF7-A3B9-96F013CC630A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840ACEA0-5ABE-41C7-AF3D-C4EF906DAA60}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2964,13 +2964,13 @@
         <v>104</v>
       </c>
       <c r="C50" s="21">
-        <v>79.5</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="D50" s="22">
-        <v>86.8</v>
+        <v>86.9</v>
       </c>
       <c r="E50" s="23">
-        <v>72.599999999999994</v>
+        <v>76</v>
       </c>
       <c r="F50" s="22">
         <v>40.013339996337898</v>
@@ -3316,13 +3316,13 @@
         <v>125</v>
       </c>
       <c r="C61" s="30">
-        <v>87.5</v>
+        <v>87.65</v>
       </c>
       <c r="D61" s="31">
-        <v>90.978571428571399</v>
+        <v>90.985714285714295</v>
       </c>
       <c r="E61" s="32">
-        <v>84.621428571428595</v>
+        <v>84.8642857142857</v>
       </c>
       <c r="F61" s="31">
         <v>47.698671402240301</v>
@@ -3348,13 +3348,13 @@
         <v>126</v>
       </c>
       <c r="C62" s="48">
-        <v>81.846341463414703</v>
+        <v>81.897560975609807</v>
       </c>
       <c r="D62" s="49">
-        <v>83.919512195121996</v>
+        <v>83.921951219512195</v>
       </c>
       <c r="E62" s="50">
-        <v>79.831707317073196</v>
+        <v>79.914634146341498</v>
       </c>
       <c r="F62" s="49">
         <v>33.881975562176599</v>
@@ -3380,13 +3380,13 @@
         <v>127</v>
       </c>
       <c r="C63" s="52">
-        <v>40.772093023255799</v>
+        <v>40.762790697674397</v>
       </c>
       <c r="D63" s="53">
-        <v>40.3244186046512</v>
+        <v>40.327906976744202</v>
       </c>
       <c r="E63" s="54">
-        <v>41.033720930232498</v>
+        <v>41.0162790697674</v>
       </c>
       <c r="F63" s="53">
         <v>16.172790904897099</v>
@@ -3412,13 +3412,13 @@
         <v>128</v>
       </c>
       <c r="C64" s="57">
-        <v>56.395454545454498</v>
+        <v>56.359090909090902</v>
       </c>
       <c r="D64" s="58">
-        <v>54.718181818181797</v>
+        <v>54.731818181818198</v>
       </c>
       <c r="E64" s="59">
-        <v>57.640909090909098</v>
+        <v>57.572727272727299</v>
       </c>
       <c r="F64" s="58">
         <v>29.993575029329001</v>
@@ -3476,13 +3476,13 @@
         <v>130</v>
       </c>
       <c r="C66" s="64">
-        <v>54.032283464566902</v>
+        <v>54.042519685039402</v>
       </c>
       <c r="D66" s="65">
-        <v>54.398425196850397</v>
+        <v>54.4015748031496</v>
       </c>
       <c r="E66" s="66">
-        <v>53.559055118110201</v>
+        <v>53.574015748031499</v>
       </c>
       <c r="F66" s="65">
         <v>17.0899671532576</v>
@@ -3540,13 +3540,13 @@
         <v>132</v>
       </c>
       <c r="C68" s="60">
-        <v>83.834999999999994</v>
+        <v>83.94</v>
       </c>
       <c r="D68" s="61">
-        <v>86.094999999999999</v>
+        <v>86.1</v>
       </c>
       <c r="E68" s="62">
-        <v>81.745000000000005</v>
+        <v>81.915000000000006</v>
       </c>
       <c r="F68" s="61">
         <v>37.739487254939398</v>
@@ -3636,13 +3636,13 @@
         <v>135</v>
       </c>
       <c r="C71" s="60">
-        <v>87.5</v>
+        <v>87.65</v>
       </c>
       <c r="D71" s="61">
-        <v>90.978571428571399</v>
+        <v>90.985714285714295</v>
       </c>
       <c r="E71" s="62">
-        <v>84.621428571428595</v>
+        <v>84.8642857142857</v>
       </c>
       <c r="F71" s="61">
         <v>47.698671402240301</v>
@@ -3988,13 +3988,13 @@
         <v>146</v>
       </c>
       <c r="C82" s="60">
-        <v>81.494594594594602</v>
+        <v>81.5513513513514</v>
       </c>
       <c r="D82" s="61">
-        <v>83.529729729729794</v>
+        <v>83.5324324324325</v>
       </c>
       <c r="E82" s="62">
-        <v>79.491891891891896</v>
+        <v>79.583783783783801</v>
       </c>
       <c r="F82" s="61">
         <v>34.190612861200997</v>
@@ -4020,13 +4020,13 @@
         <v>147</v>
       </c>
       <c r="C83" s="52">
-        <v>38.802564102564098</v>
+        <v>38.792307692307702</v>
       </c>
       <c r="D83" s="53">
-        <v>38.725641025641004</v>
+        <v>38.729487179487201</v>
       </c>
       <c r="E83" s="54">
-        <v>38.919230769230801</v>
+        <v>38.9</v>
       </c>
       <c r="F83" s="53">
         <v>15.1787311224855</v>
@@ -4052,13 +4052,13 @@
         <v>148</v>
       </c>
       <c r="C84" s="68">
-        <v>90.966666666666697</v>
+        <v>91.0833333333333</v>
       </c>
       <c r="D84" s="69">
-        <v>93.933333333333394</v>
+        <v>93.938888888888897</v>
       </c>
       <c r="E84" s="70">
-        <v>88.4166666666667</v>
+        <v>88.605555555555597</v>
       </c>
       <c r="F84" s="69">
         <v>30.342157197046099</v>
@@ -4244,13 +4244,13 @@
         <v>154</v>
       </c>
       <c r="C90" s="64">
-        <v>14.0648648648649</v>
+        <v>14.0432432432432</v>
       </c>
       <c r="D90" s="65">
-        <v>13.3918918918919</v>
+        <v>13.4</v>
       </c>
       <c r="E90" s="66">
-        <v>14.5648648648649</v>
+        <v>14.524324324324301</v>
       </c>
       <c r="F90" s="65">
         <v>13.2631575749724</v>
@@ -4276,13 +4276,13 @@
         <v>155</v>
       </c>
       <c r="C91" s="60">
-        <v>88.962962962963005</v>
+        <v>89.040740740740802</v>
       </c>
       <c r="D91" s="61">
-        <v>92.244444444444497</v>
+        <v>92.248148148148204</v>
       </c>
       <c r="E91" s="62">
-        <v>86.425925925925895</v>
+        <v>86.551851851851893</v>
       </c>
       <c r="F91" s="61">
         <v>33.564484094740003</v>
@@ -4468,13 +4468,13 @@
         <v>161</v>
       </c>
       <c r="C97" s="68">
-        <v>86.888461538461598</v>
+        <v>86.969230769230805</v>
       </c>
       <c r="D97" s="69">
-        <v>90.834615384615404</v>
+        <v>90.838461538461601</v>
       </c>
       <c r="E97" s="70">
-        <v>83.742307692307705</v>
+        <v>83.873076923076894</v>
       </c>
       <c r="F97" s="69">
         <v>41.275602040039203</v>
@@ -4721,12 +4721,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{922B1757-2965-44A7-B577-F742C1AF3D2C}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{37B8D091-3FE6-47CF-B7F5-B2DCB50C8A48}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{2FAF8E6C-8C59-4500-920D-9BC85631063E}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{1380730F-9CB2-47AB-B649-08882A11A100}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{B8A3C411-086A-4DFB-9793-28BAB9865BC0}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{9233ADF8-3908-4B05-8CE1-71741E272877}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{27A64671-80B0-482D-90BE-CD290E2FDC8C}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{5A289B3A-31A9-41AA-9508-B542E00C6015}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{E183BCB2-F891-4EFC-81F7-3D9880884595}"/>
+    <hyperlink ref="B112" r:id="rId4" xr:uid="{BFFF1F74-E165-4C10-B4E9-416225B2AB05}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{682C0282-3A38-46C4-A1F9-9CA128BD85AC}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{67507484-4D03-4B73-949B-5194CCA87139}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2024_Annex_Table_Tab31.xlsx
+++ b/AfDD_2024_Annex_Table_Tab31.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55295777-8BF9-4237-9A5E-86EEE5802ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9139CF26-AAF9-41D4-A054-27FE27DF0E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CFA0BDCB-78A3-4C91-9527-DD6D664A6C61}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{CBEFE226-EA7B-4499-B1B7-9A4BD838F3C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab31" sheetId="1" r:id="rId1"/>
@@ -1075,8 +1075,8 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1392,7 +1392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840ACEA0-5ABE-41C7-AF3D-C4EF906DAA60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990818FB-2BC7-4A3C-96C3-225EB616EEB0}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1404,7 +1404,7 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="12.42578125" style="76" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="12.42578125" style="77" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4672,7 +4672,7 @@
       <c r="J110" s="74"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B111" s="77" t="s">
+      <c r="B111" s="76" t="s">
         <v>172</v>
       </c>
       <c r="C111" s="74"/>
@@ -4685,7 +4685,7 @@
       <c r="J111" s="74"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="76" t="s">
         <v>169</v>
       </c>
       <c r="C112" s="74"/>
@@ -4721,12 +4721,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{27A64671-80B0-482D-90BE-CD290E2FDC8C}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{5A289B3A-31A9-41AA-9508-B542E00C6015}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{E183BCB2-F891-4EFC-81F7-3D9880884595}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{BFFF1F74-E165-4C10-B4E9-416225B2AB05}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{682C0282-3A38-46C4-A1F9-9CA128BD85AC}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{67507484-4D03-4B73-949B-5194CCA87139}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{E8991101-EA1E-4C35-8DFD-054C93551051}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{51D3C745-BAB6-4672-8147-A364CEF30104}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{C91A3FE1-850E-4000-9602-D9AF725EDC66}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{218F13B7-1D76-4CD9-93B9-1C15F775389C}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{CDE599B2-A964-43C8-BF6B-6816CB375B7F}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{33BBA158-5D8D-40C6-A09B-41B3FDB38290}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2024_Annex_Table_Tab31.xlsx
+++ b/AfDD_2024_Annex_Table_Tab31.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9139CF26-AAF9-41D4-A054-27FE27DF0E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{168BEC49-9EBD-4152-8B53-510654CAECB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{CBEFE226-EA7B-4499-B1B7-9A4BD838F3C4}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{2D9386C6-C643-4F30-B968-2FA9487F56E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab31" sheetId="1" r:id="rId1"/>
@@ -1392,7 +1392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990818FB-2BC7-4A3C-96C3-225EB616EEB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86AB397A-2DED-4B76-B3E6-17E19311B8F9}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4721,12 +4721,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{E8991101-EA1E-4C35-8DFD-054C93551051}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{51D3C745-BAB6-4672-8147-A364CEF30104}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{C91A3FE1-850E-4000-9602-D9AF725EDC66}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{218F13B7-1D76-4CD9-93B9-1C15F775389C}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{CDE599B2-A964-43C8-BF6B-6816CB375B7F}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{33BBA158-5D8D-40C6-A09B-41B3FDB38290}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{AD9C920A-CD13-46B7-B340-EF179802200D}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{07A46E71-FDE8-454F-BCE7-7041DA8D0542}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{E2DC9FCB-0584-44AC-8A2A-E1B3708B534A}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{D27B7D67-424A-4351-8E9F-20B414F62398}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{E22D6B5D-73D0-47D0-A821-A2749399C463}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{6426887C-4D95-4A40-BFD4-D2394EC93500}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>
